--- a/project/excel/smoc_schema.xlsx
+++ b/project/excel/smoc_schema.xlsx
@@ -1,15 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="21" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="NamedThing" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="Study" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="StudyCollection" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="AlignmentSet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Array" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Assay" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DataEntity" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="NamedThing" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ReferenceGenome" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ReferenceSequence" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sample" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Study" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="StudyCollection" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="VariantSet" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="AlignmentSet1" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Array1" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Assay1" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DataEntity1" sheetId="15" state="visible" r:id="rId15"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="NamedThing1" sheetId="16" state="visible" r:id="rId16"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ReferenceGenome1" sheetId="17" state="visible" r:id="rId17"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ReferenceSequence1" sheetId="18" state="visible" r:id="rId18"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sample1" sheetId="19" state="visible" r:id="rId19"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Study1" sheetId="20" state="visible" r:id="rId20"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="StudyCollection1" sheetId="21" state="visible" r:id="rId21"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="VariantSet1" sheetId="22" state="visible" r:id="rId22"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -415,6 +434,268 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="A1:D1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>uri</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>format</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>has_sample</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>has_reference</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>studyCollection__entries</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>uri</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>format</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>has_sample</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>has_reference</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>uri</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>format</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>has_sample</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>has_reference</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>uri</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>format</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>has_sample</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>has_reference</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>has_sample</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>has_data</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>uri</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>format</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>has_sample</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>has_reference</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -445,85 +726,550 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>has_sequence</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>taxon_id</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>source_uri</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>uri</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>sequence_md5</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>source_uri</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>taxon_id</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>collector</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>primary_email</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>birth_date</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>age_in_years</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>vital_status</t>
+  <dimension ref="A1:D1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>uri</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>format</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>has_sample</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>has_reference</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>description</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>start_date</t>
         </is>
       </c>
       <c r="E1" t="inlineStr">
         <is>
-          <t>id</t>
+          <t>completion_date</t>
         </is>
       </c>
       <c r="F1" t="inlineStr">
         <is>
-          <t>name</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>description</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <dataValidations count="1">
-    <dataValidation sqref="D2:D1048576" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
-      <formula1>"ALIVE,DEAD,UNKNOWN"</formula1>
+          <t>has_assay</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>studyCollection__entries</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>uri</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>format</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>has_sample</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>has_reference</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>has_sample</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>has_data</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>uri</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>format</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>has_sample</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>has_reference</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations count="2">
+    <dataValidation sqref="B2:B1048576" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="0" type="list">
+      <formula1>"CRAM,FASTQ,Zarr"</formula1>
+    </dataValidation>
+    <dataValidation sqref="B2:B1048576" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="0" type="list">
+      <formula1>"CRAM,FASTQ,Zarr"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>entries</t>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>description</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>has_sequence</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>taxon_id</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>source_uri</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>uri</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>sequence_md5</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>source_uri</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>taxon_id</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>collector</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>description</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>start_date</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>completion_date</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>has_assay</t>
         </is>
       </c>
     </row>

--- a/project/excel/smoc_schema.xlsx
+++ b/project/excel/smoc_schema.xlsx
@@ -450,7 +450,7 @@
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>format</t>
+          <t>data_format</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
@@ -517,7 +517,7 @@
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>format</t>
+          <t>data_format</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
@@ -558,7 +558,7 @@
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>format</t>
+          <t>data_format</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
@@ -599,7 +599,7 @@
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>format</t>
+          <t>data_format</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
@@ -671,7 +671,7 @@
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>format</t>
+          <t>data_format</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
@@ -861,7 +861,7 @@
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>format</t>
+          <t>data_format</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
@@ -979,7 +979,7 @@
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>format</t>
+          <t>data_format</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
@@ -1051,7 +1051,7 @@
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>format</t>
+          <t>data_format</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">

--- a/project/excel/smoc_schema.xlsx
+++ b/project/excel/smoc_schema.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="NamedThing" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Study" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Assay" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sample" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DataEntity" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ReferenceGenome" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ReferenceSequence" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="AlignmentSet" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="VariantSet" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Array" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="StudyCollection" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet name="NamedThing" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Study" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Assay" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Sample" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="DataEntity" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="ReferenceGenome" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="ReferenceSequence" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="AlignmentSet" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="VariantSet" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="Array" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet name="StudyCollection" sheetId="11" state="visible" r:id="rId11"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -582,7 +582,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -601,8 +601,18 @@
           <t>has_data</t>
         </is>
       </c>
-    </row>
-  </sheetData>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>omics_type</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations count="1">
+    <dataValidation sqref="C2:C1048576" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+      <formula1>"GENOMICS,TRANSCRIPTOMICS,METABOLOMICS,PROTEOMICS"</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>

--- a/project/excel/smoc_schema.xlsx
+++ b/project/excel/smoc_schema.xlsx
@@ -459,7 +459,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:G1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -486,6 +486,21 @@
       <c r="D1" t="inlineStr">
         <is>
           <t>has_reference</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>description</t>
         </is>
       </c>
     </row>
@@ -582,7 +597,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:F1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -604,6 +619,21 @@
       <c r="C1" t="inlineStr">
         <is>
           <t>omics_type</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>description</t>
         </is>
       </c>
     </row>
@@ -623,7 +653,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:E1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -642,6 +672,21 @@
           <t>collector</t>
         </is>
       </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>description</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -654,7 +699,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:G1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -681,6 +726,21 @@
       <c r="D1" t="inlineStr">
         <is>
           <t>has_reference</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>description</t>
         </is>
       </c>
     </row>
@@ -700,115 +760,150 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
+  <dimension ref="A1:F1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>has_sequence</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>taxon_id</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>source_uri</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
         <is>
           <t>name</t>
         </is>
       </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>description</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>location</t>
+        </is>
+      </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>has_sequence</t>
+          <t>sequence_md5</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>taxon_id</t>
+          <t>source_uri</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>source_uri</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:D1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
+          <t>id</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
         <is>
           <t>name</t>
         </is>
       </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>description</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>location</t>
+        </is>
+      </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>location</t>
+          <t>data_format</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>sequence_md5</t>
+          <t>has_sample</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>source_uri</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:D1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>location</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>data_format</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>has_sample</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
           <t>has_reference</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>description</t>
         </is>
       </c>
     </row>
@@ -828,7 +923,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:G1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -855,6 +950,21 @@
       <c r="D1" t="inlineStr">
         <is>
           <t>has_reference</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>description</t>
         </is>
       </c>
     </row>

--- a/project/excel/smoc_schema.xlsx
+++ b/project/excel/smoc_schema.xlsx
@@ -507,7 +507,7 @@
   </sheetData>
   <dataValidations count="1">
     <dataValidation sqref="B2:B1048576" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
-      <formula1>"CRAM,FASTQ,Zarr"</formula1>
+      <formula1>"CRAM,FASTQ,Zarr,FASTA"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -747,7 +747,7 @@
   </sheetData>
   <dataValidations count="1">
     <dataValidation sqref="B2:B1048576" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
-      <formula1>"CRAM,FASTQ,Zarr"</formula1>
+      <formula1>"CRAM,FASTQ,Zarr,FASTA"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -760,92 +760,92 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
+  <dimension ref="A1:G1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>location</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
         <is>
           <t>has_sequence</t>
         </is>
       </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>taxon_id</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>source_uri</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>description</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>sequence_md5</t>
+        </is>
+      </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>taxon_id</t>
+          <t>source_uri</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>source_uri</t>
+          <t>id</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>id</t>
+          <t>name</t>
         </is>
       </c>
       <c r="E1" t="inlineStr">
-        <is>
-          <t>name</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>description</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:F1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>location</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>sequence_md5</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>source_uri</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>id</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>name</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
         <is>
           <t>description</t>
         </is>
@@ -910,7 +910,7 @@
   </sheetData>
   <dataValidations count="1">
     <dataValidation sqref="B2:B1048576" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
-      <formula1>"CRAM,FASTQ,Zarr"</formula1>
+      <formula1>"CRAM,FASTQ,Zarr,FASTA"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -971,7 +971,7 @@
   </sheetData>
   <dataValidations count="1">
     <dataValidation sqref="B2:B1048576" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
-      <formula1>"CRAM,FASTQ,Zarr"</formula1>
+      <formula1>"CRAM,FASTQ,Zarr,FASTA"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
